--- a/05.cleaning/04.project.names/rev.02/project.names.from.unifier.xlsx
+++ b/05.cleaning/04.project.names/rev.02/project.names.from.unifier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/05.cleaning/04.project.names/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/05.cleaning/04.project.names/rev.02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB924EF3-D89D-4FDD-9624-5048D955D0FA}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{989B2EB9-0C10-4709-A97A-1A485BD0062A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,8 +103,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,10 +158,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,7 +425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -428,7 +435,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -549,5 +556,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>